--- a/Excel/模组任务干员名单20240502作者版.xlsx
+++ b/Excel/模组任务干员名单20240502作者版.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06FAE845-8299-476C-8CFB-56F60CCBC551}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0669271-E5F0-4429-B779-A0557FA198D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10290" yWindow="3015" windowWidth="23925" windowHeight="16665" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6825" yWindow="2790" windowWidth="23925" windowHeight="16665" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="890" uniqueCount="662">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="892" uniqueCount="664">
   <si>
     <t>缪尔赛思</t>
   </si>
@@ -1257,9 +1257,6 @@
     <t>maa://20941 (100.0)</t>
   </si>
   <si>
-    <t>maa://20888 (100.0)</t>
-  </si>
-  <si>
     <t>maa://20866 (100.0)</t>
   </si>
   <si>
@@ -1302,9 +1299,6 @@
     <t>*maa://20871 (75.0)</t>
   </si>
   <si>
-    <t>maa://30500 (95.83), *maa://27290 (66.67)</t>
-  </si>
-  <si>
     <t>maa://20916 (92.86)</t>
   </si>
   <si>
@@ -1356,9 +1350,6 @@
     <t>maa://30502 (100.0)</t>
   </si>
   <si>
-    <t>maa://20932 (96.95)</t>
-  </si>
-  <si>
     <t>*maa://20965 (64.71)</t>
   </si>
   <si>
@@ -1383,9 +1374,6 @@
     <t>maa://20993 (100.0), maa://20829 (100.0)</t>
   </si>
   <si>
-    <t>maa://35393 (100.0), maa://20944 (96.67)</t>
-  </si>
-  <si>
     <t>maa://20943 (100.0)</t>
   </si>
   <si>
@@ -1395,9 +1383,6 @@
     <t>maa://20873 (100.0)</t>
   </si>
   <si>
-    <t>maa://20958 (90.91)</t>
-  </si>
-  <si>
     <t>maa://20957 (100.0)</t>
   </si>
   <si>
@@ -1425,12 +1410,6 @@
     <t>maa://20885 (100.0)</t>
   </si>
   <si>
-    <t>maa://25136 (85.71), maa://20886 (81.82)</t>
-  </si>
-  <si>
-    <t>*maa://28190 (59.09), maa://20880 (87.5)</t>
-  </si>
-  <si>
     <t>maa://24609 (81.82)</t>
   </si>
   <si>
@@ -1440,9 +1419,6 @@
     <t>maa://20984 (100.0)</t>
   </si>
   <si>
-    <t>maa://20927 (83.33)</t>
-  </si>
-  <si>
     <t>*maa://20926 (60.0)</t>
   </si>
   <si>
@@ -1455,15 +1431,9 @@
     <t>maa://20929 (100.0)</t>
   </si>
   <si>
-    <t>maa://31560 (100.0), maa://20852 (100.0)</t>
-  </si>
-  <si>
     <t>maa://20893 (85.71)</t>
   </si>
   <si>
-    <t>*maa://29094 (64.0), maa://28904 (86.67), **maa://20931 (42.31)</t>
-  </si>
-  <si>
     <t>maa://20966 (100.0)</t>
   </si>
   <si>
@@ -1479,42 +1449,21 @@
     <t>maa://20887 (100.0)</t>
   </si>
   <si>
-    <t>maa://28554 (84.62)</t>
-  </si>
-  <si>
-    <t>*maa://20933 (76.32), maa://20822 (100.0)</t>
-  </si>
-  <si>
     <t>maa://29037 (100.0)</t>
   </si>
   <si>
     <t>maa://20904 (100.0)</t>
   </si>
   <si>
-    <t>maa://35723 (100.0), maa://20908 (98.04), *maa://23346 (77.78)</t>
-  </si>
-  <si>
-    <t>maa://29659 (84.62), maa://29031 (100.0)</t>
-  </si>
-  <si>
-    <t>maa://31560 (100.0), maa://20940 (100.0)</t>
-  </si>
-  <si>
     <t>maa://20986 (92.31)</t>
   </si>
   <si>
-    <t>maa://31560 (100.0), maa://20851 (100.0)</t>
-  </si>
-  <si>
     <t>maa://20949 (100.0)</t>
   </si>
   <si>
     <t>maa://20869 (100.0)</t>
   </si>
   <si>
-    <t>maa://29650 (96.15)</t>
-  </si>
-  <si>
     <t>maa://20868 (100.0)</t>
   </si>
   <si>
@@ -1527,9 +1476,6 @@
     <t>maa://31937 (100.0), maa://20914 (100.0), maa://20829 (100.0)</t>
   </si>
   <si>
-    <t>maa://24611 (83.33)</t>
-  </si>
-  <si>
     <t>maa://24491 (100.0), maa://24493 (100.0)</t>
   </si>
   <si>
@@ -1539,9 +1485,6 @@
     <t>maa://30719 (100.0)</t>
   </si>
   <si>
-    <t>maa://23019 (100.0), maa://20837 (100.0)</t>
-  </si>
-  <si>
     <t>maa://20856 (100.0)</t>
   </si>
   <si>
@@ -1551,18 +1494,12 @@
     <t>**maa://20915 (50.0)</t>
   </si>
   <si>
-    <t>*maa://29025 (75.0), **maa://21000 (42.31)</t>
-  </si>
-  <si>
     <t>**maa://30679 (44.44)</t>
   </si>
   <si>
     <t>maa://20981 (100.0)</t>
   </si>
   <si>
-    <t>maa://30670 (97.3), maa://31470 (92.31), ***maa://30867 (25.0)</t>
-  </si>
-  <si>
     <t>maa://20971 (100.0)</t>
   </si>
   <si>
@@ -1617,9 +1554,6 @@
     <t>maa://20983 (100.0)</t>
   </si>
   <si>
-    <t>maa://31560 (100.0), **maa://20968 (50.0)</t>
-  </si>
-  <si>
     <t>maa://28104 (100.0)</t>
   </si>
   <si>
@@ -1629,9 +1563,6 @@
     <t>maa://20970 (100.0)</t>
   </si>
   <si>
-    <t>maa://20969 (89.47)</t>
-  </si>
-  <si>
     <t>maa://20999 (100.0)</t>
   </si>
   <si>
@@ -1650,18 +1581,12 @@
     <t>maa://20992 (100.0)</t>
   </si>
   <si>
-    <t>*maa://28190 (59.09), maa://20994 (100.0)</t>
-  </si>
-  <si>
     <t>maa://20860 (100.0)</t>
   </si>
   <si>
     <t>maa://35854 (100.0), maa://25760 (82.22), **maa://20872 (50.0)</t>
   </si>
   <si>
-    <t>maa://27823 (82.35), *maa://28190 (59.09), maa://22894 (90.48), *maa://20906 (76.47), **maa://20907 (33.33)</t>
-  </si>
-  <si>
     <t>***maa://20950 (25.0)</t>
   </si>
   <si>
@@ -1683,9 +1608,6 @@
     <t>maa://20935 (100.0)</t>
   </si>
   <si>
-    <t>maa://28133 (87.5), maa://28277 (88.89), *maa://33132 (66.67), maa://25369 (95.83)</t>
-  </si>
-  <si>
     <t>*maa://20955 (78.95)</t>
   </si>
   <si>
@@ -1710,33 +1632,18 @@
     <t>maa://20985 (100.0)</t>
   </si>
   <si>
-    <t>maa://35801 (100.0), maa://20987 (90.2)</t>
-  </si>
-  <si>
     <t>maa://30677 (100.0)</t>
   </si>
   <si>
     <t>maa://20896 (100.0)</t>
   </si>
   <si>
-    <t>maa://29058 (97.14)</t>
-  </si>
-  <si>
     <t>maa://20878 (85.71)</t>
   </si>
   <si>
     <t>maa://35952 (100.0)</t>
   </si>
   <si>
-    <t>maa://20917 (96.3)</t>
-  </si>
-  <si>
-    <t>maa://30714 (94.12), maa://30675 (100.0)</t>
-  </si>
-  <si>
-    <t>*maa://32623 (66.67), maa://34242 (100.0), *maa://34900 (75.0), maa://20922 (92.68)</t>
-  </si>
-  <si>
     <t>maa://32999 (100.0)</t>
   </si>
   <si>
@@ -1749,27 +1656,12 @@
     <t>maa://29024 (100.0)</t>
   </si>
   <si>
-    <t>*maa://32202 (66.67), maa://20867 (90.0)</t>
-  </si>
-  <si>
-    <t>*maa://30674 (80.0)</t>
-  </si>
-  <si>
-    <t>maa://28923 (92.16), maa://28906 (93.33), ***maa://28825 (10.53)</t>
-  </si>
-  <si>
-    <t>maa://20923 (90.0)</t>
-  </si>
-  <si>
     <t>*maa://31559 (80.0), maa://24093 (100.0), maa://20924 (88.89)</t>
   </si>
   <si>
     <t>maa://20840 (100.0)</t>
   </si>
   <si>
-    <t>maa://20877 (97.67), maa://20836 (100.0)</t>
-  </si>
-  <si>
     <t>maa://20879 (83.33), maa://20834 (100.0)</t>
   </si>
   <si>
@@ -1779,9 +1671,6 @@
     <t>maa://30676 (100.0)</t>
   </si>
   <si>
-    <t>maa://31560 (100.0), maa://20884 (90.0)</t>
-  </si>
-  <si>
     <t>**maa://20883 (50.0)</t>
   </si>
   <si>
@@ -1791,9 +1680,6 @@
     <t>maa://20977 (100.0)</t>
   </si>
   <si>
-    <t>maa://22467 (95.0)</t>
-  </si>
-  <si>
     <t>**maa://30678 (50.0)</t>
   </si>
   <si>
@@ -1809,9 +1695,6 @@
     <t>**maa://20939 (33.33)</t>
   </si>
   <si>
-    <t>maa://28133 (87.5), maa://33394 (100.0)</t>
-  </si>
-  <si>
     <t>maa://20978 (100.0)</t>
   </si>
   <si>
@@ -1830,9 +1713,6 @@
     <t>maa://29159 (100.0)</t>
   </si>
   <si>
-    <t>maa://29005 (95.65), maa://31560 (100.0)</t>
-  </si>
-  <si>
     <t>maa://27939 (100.0)</t>
   </si>
   <si>
@@ -1842,9 +1722,6 @@
     <t>maa://35859 (100.0)</t>
   </si>
   <si>
-    <t>maa://25775 (94.87), *maa://25393 (80.0)</t>
-  </si>
-  <si>
     <t>*maa://31559 (80.0), maa://28241 (100.0)</t>
   </si>
   <si>
@@ -1857,18 +1734,12 @@
     <t>maa://30680 (100.0)</t>
   </si>
   <si>
-    <t>maa://30671 (82.0), *maa://32410 (63.64), maa://30669 (96.88), maa://33671 (100.0)</t>
-  </si>
-  <si>
     <t>maa://32417 (100.0)</t>
   </si>
   <si>
     <t>maa://32419 (100.0)</t>
   </si>
   <si>
-    <t>maa://32416 (86.96)</t>
-  </si>
-  <si>
     <t>maa://32420 (100.0)</t>
   </si>
   <si>
@@ -1881,51 +1752,15 @@
     <t>**maa://24873 (42.86), maa://20919 (100.0)</t>
   </si>
   <si>
-    <t>maa://20863 (83.87), maa://20832 (94.12), maa://20727 (100.0)</t>
-  </si>
-  <si>
     <t>拉普兰德</t>
   </si>
   <si>
-    <t>maa://36644 (100.0)</t>
-  </si>
-  <si>
-    <t>*maa://27376 (80.0), **maa://20838 (42.86)</t>
-  </si>
-  <si>
-    <t>*maa://20892 (76.67)</t>
-  </si>
-  <si>
-    <t>maa://28900 (95.45), maa://30126 (100.0)</t>
-  </si>
-  <si>
-    <t>maa://20976 (97.74), maa://20815 (100.0)</t>
-  </si>
-  <si>
-    <t>maa://28784 (92.99), maa://29088 (92.0), *maa://33612 (68.42), maa://31124 (91.18), maa://28950 (86.67), maa://29087 (100.0), maa://20974 (93.75), **maa://20823 (50.0)</t>
-  </si>
-  <si>
     <t>银灰</t>
   </si>
   <si>
-    <t>maa://36643 (90.48)</t>
-  </si>
-  <si>
-    <t>maa://35841 (100.0), maa://24472 (83.78)</t>
-  </si>
-  <si>
-    <t>maa://25018 (94.23), maa://25776 (92.45), *maa://32653 (75.0), maa://28361 (94.74), maa://25772 (90.91), *maa://25161 (75.0)</t>
-  </si>
-  <si>
-    <t>maa://34319 (100.0), maa://29023 (100.0), maa://23020 (92.59)</t>
-  </si>
-  <si>
     <t>断崖</t>
   </si>
   <si>
-    <t>maa://28484 (100.0), **maa://23736 (40.32), *maa://31185 (66.67), maa://30306 (100.0)</t>
-  </si>
-  <si>
     <t>maa://29056 (100.0), ***maa://20901 (10.0)</t>
   </si>
   <si>
@@ -1935,36 +1770,12 @@
     <t>SV-6</t>
   </si>
   <si>
-    <t>maa://36641 (100.0)</t>
-  </si>
-  <si>
-    <t>maa://20945 (92.86)</t>
-  </si>
-  <si>
     <t>芳汀</t>
   </si>
   <si>
     <t>maa://20855 (92.86)</t>
   </si>
   <si>
-    <t>maa://29633 (90.22), maa://29627 (91.8), maa://29659 (84.62), maa://29861 (100.0)</t>
-  </si>
-  <si>
-    <t>maa://32418 (99.49)</t>
-  </si>
-  <si>
-    <t>maa://34714 (88.89), *maa://34866 (77.78)</t>
-  </si>
-  <si>
-    <t>maa://20956 (94.44), *maa://20830 (77.78)</t>
-  </si>
-  <si>
-    <t>*maa://30667 (74.47), maa://30666 (82.31), **maa://30739 (46.67), *maa://34428 (75.0), *maa://26836 (73.58), **maa://30723 (38.89)</t>
-  </si>
-  <si>
-    <t>maa://25769 (98.85)</t>
-  </si>
-  <si>
     <t>罗小黑</t>
   </si>
   <si>
@@ -1974,39 +1785,12 @@
     <t>**maa://35860 (50.0)</t>
   </si>
   <si>
-    <t>maa://20899 (91.11)</t>
-  </si>
-  <si>
-    <t>maa://30710 (98.46), maa://31558 (95.45), maa://30668 (85.0)</t>
-  </si>
-  <si>
-    <t>maa://28133 (87.5), maa://25774 (100.0), **maa://31349 (50.0), maa://22469 (91.89)</t>
-  </si>
-  <si>
-    <t>maa://32414 (98.17), maa://32505 (100.0)</t>
-  </si>
-  <si>
     <t>仇白</t>
   </si>
   <si>
-    <t>maa://36642 (100.0)</t>
-  </si>
-  <si>
-    <t>maa://25367 (98.15)</t>
-  </si>
-  <si>
     <t>烈夏</t>
   </si>
   <si>
-    <t>maa://32647 (95.63), maa://32415 (97.22), maa://34677 (100.0), maa://32892 (100.0)</t>
-  </si>
-  <si>
-    <t>maa://34865 (91.07), maa://34717 (93.48)</t>
-  </si>
-  <si>
-    <t>maa://35996 (94.44)</t>
-  </si>
-  <si>
     <t>历阵锐枪芬</t>
   </si>
   <si>
@@ -2014,13 +1798,235 @@
   </si>
   <si>
     <t>维什戴尔</t>
-  </si>
-  <si>
-    <t>maa://36645 (92.31), maa://36841 (100.0)</t>
   </si>
   <si>
     <t>更新日期：2024.05.02</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>*maa://20888 (80.0)</t>
+  </si>
+  <si>
+    <t>maa://20863 (83.97), maa://20832 (95.83), maa://20727 (100.0)</t>
+  </si>
+  <si>
+    <t>maa://36644 (94.23), maa://36866 (100.0)</t>
+  </si>
+  <si>
+    <t>maa://30500 (96.3), *maa://27290 (66.67)</t>
+  </si>
+  <si>
+    <t>maa://27376 (81.82), **maa://20838 (42.86)</t>
+  </si>
+  <si>
+    <t>*maa://20892 (76.19)</t>
+  </si>
+  <si>
+    <t>maa://20932 (97.01)</t>
+  </si>
+  <si>
+    <t>maa://28900 (96.0), maa://30126 (100.0)</t>
+  </si>
+  <si>
+    <t>maa://20976 (97.78), maa://20815 (100.0)</t>
+  </si>
+  <si>
+    <t>maa://28784 (93.14), maa://29088 (91.72), *maa://33612 (70.0), maa://31124 (92.86), maa://28950 (88.89), maa://29087 (100.0), maa://20974 (93.75), **maa://20823 (50.0)</t>
+  </si>
+  <si>
+    <t>maa://35393 (100.0), maa://20944 (96.88)</t>
+  </si>
+  <si>
+    <t>maa://36643 (95.51), maa://36864 (100.0)</t>
+  </si>
+  <si>
+    <t>maa://20958 (91.3)</t>
+  </si>
+  <si>
+    <t>maa://25136 (85.71), maa://20886 (83.33)</t>
+  </si>
+  <si>
+    <t>*maa://35841 (62.5), maa://24472 (84.62)</t>
+  </si>
+  <si>
+    <t>*maa://28190 (58.33), maa://20880 (87.5)</t>
+  </si>
+  <si>
+    <t>maa://20927 (85.71)</t>
+  </si>
+  <si>
+    <t>*maa://31560 (80.0), maa://20852 (100.0)</t>
+  </si>
+  <si>
+    <t>*maa://29094 (64.0), maa://28904 (88.24), **maa://20931 (42.31)</t>
+  </si>
+  <si>
+    <t>maa://25018 (94.54), maa://32653 (81.82), maa://28361 (95.65), maa://25772 (91.43), maa://25776 (90.74), *maa://25161 (76.92)</t>
+  </si>
+  <si>
+    <t>maa://28554 (85.71)</t>
+  </si>
+  <si>
+    <t>*maa://20933 (74.36), maa://20822 (100.0)</t>
+  </si>
+  <si>
+    <t>maa://35723 (100.0), maa://20908 (98.05), *maa://23346 (77.78)</t>
+  </si>
+  <si>
+    <t>maa://29031 (100.0), maa://29659 (81.48)</t>
+  </si>
+  <si>
+    <t>*maa://31560 (80.0), maa://20940 (100.0)</t>
+  </si>
+  <si>
+    <t>*maa://31560 (80.0), maa://20851 (100.0)</t>
+  </si>
+  <si>
+    <t>maa://29650 (96.3)</t>
+  </si>
+  <si>
+    <t>maa://37484 (100.0), maa://24611 (85.0)</t>
+  </si>
+  <si>
+    <t>maa://37113 (100.0), maa://23019 (100.0), maa://20837 (100.0)</t>
+  </si>
+  <si>
+    <t>maa://34319 (100.0), maa://29023 (100.0), maa://23020 (94.74)</t>
+  </si>
+  <si>
+    <t>*maa://29025 (76.92), **maa://21000 (42.31)</t>
+  </si>
+  <si>
+    <t>maa://28484 (100.0), **maa://23736 (41.27), *maa://31185 (66.67), maa://30306 (100.0)</t>
+  </si>
+  <si>
+    <t>maa://30670 (97.73), maa://31470 (92.86), ***maa://30867 (25.0)</t>
+  </si>
+  <si>
+    <t>maa://36641 (98.45), maa://36865 (93.88), maa://37300 (100.0)</t>
+  </si>
+  <si>
+    <t>maa://20945 (87.5)</t>
+  </si>
+  <si>
+    <t>maa://29633 (90.0), maa://29627 (91.73), maa://29659 (81.48), maa://29861 (100.0)</t>
+  </si>
+  <si>
+    <t>maa://32418 (99.57)</t>
+  </si>
+  <si>
+    <t>*maa://31560 (80.0), **maa://20968 (50.0)</t>
+  </si>
+  <si>
+    <t>maa://20969 (90.48)</t>
+  </si>
+  <si>
+    <t>*maa://34866 (77.78), maa://34714 (92.31)</t>
+  </si>
+  <si>
+    <t>*maa://28190 (58.33), maa://20994 (100.0)</t>
+  </si>
+  <si>
+    <t>maa://27823 (81.58), *maa://28190 (58.33), *maa://20906 (76.47), maa://22894 (88.0), **maa://20907 (33.33)</t>
+  </si>
+  <si>
+    <t>maa://28133 (88.24), maa://28277 (85.0), maa://25369 (92.0), **maa://33132 (50.0)</t>
+  </si>
+  <si>
+    <t>maa://20956 (94.79), *maa://20830 (77.78)</t>
+  </si>
+  <si>
+    <t>maa://35801 (100.0), maa://20987 (88.89)</t>
+  </si>
+  <si>
+    <t>maa://29058 (97.22)</t>
+  </si>
+  <si>
+    <t>maa://20917 (96.55)</t>
+  </si>
+  <si>
+    <t>maa://30714 (95.24), maa://30675 (100.0)</t>
+  </si>
+  <si>
+    <t>*maa://32623 (70.0), *maa://34900 (80.0), maa://34242 (100.0), maa://20922 (92.86)</t>
+  </si>
+  <si>
+    <t>*maa://30667 (74.14), maa://30666 (83.67), *maa://34428 (68.42), **maa://30739 (46.67), *maa://26836 (73.95), **maa://30723 (39.47)</t>
+  </si>
+  <si>
+    <t>*maa://32202 (75.0), maa://20867 (90.91)</t>
+  </si>
+  <si>
+    <t>maa://30674 (83.33)</t>
+  </si>
+  <si>
+    <t>maa://28923 (92.59), maa://28906 (94.12), ***maa://28825 (15.0)</t>
+  </si>
+  <si>
+    <t>maa://20923 (84.62)</t>
+  </si>
+  <si>
+    <t>maa://20877 (97.73), maa://20836 (100.0)</t>
+  </si>
+  <si>
+    <t>*maa://31560 (80.0), maa://20884 (90.0)</t>
+  </si>
+  <si>
+    <t>maa://22467 (95.24)</t>
+  </si>
+  <si>
+    <t>maa://25769 (98.89)</t>
+  </si>
+  <si>
+    <t>maa://28133 (88.24), maa://33394 (100.0)</t>
+  </si>
+  <si>
+    <t>maa://20899 (89.11)</t>
+  </si>
+  <si>
+    <t>maa://36845 (91.67), maa://30710 (98.59), maa://31558 (96.0), maa://30668 (82.61)</t>
+  </si>
+  <si>
+    <t>maa://28133 (88.24), maa://25774 (100.0), **maa://31349 (50.0), maa://22469 (91.89)</t>
+  </si>
+  <si>
+    <t>maa://32414 (98.45), maa://32505 (100.0)</t>
+  </si>
+  <si>
+    <t>maa://36642 (100.0), maa://36867 (100.0)</t>
+  </si>
+  <si>
+    <t>maa://29005 (96.15), *maa://31560 (80.0)</t>
+  </si>
+  <si>
+    <t>maa://25775 (95.24), *maa://25393 (80.0)</t>
+  </si>
+  <si>
+    <t>maa://25367 (98.46)</t>
+  </si>
+  <si>
+    <t>**maa://34205 (50.0)</t>
+  </si>
+  <si>
+    <t>maa://37275 (100.0), maa://30671 (82.69), *maa://32410 (63.64), maa://30669 (97.14), maa://33671 (100.0)</t>
+  </si>
+  <si>
+    <t>maa://32416 (83.33)</t>
+  </si>
+  <si>
+    <t>maa://32647 (96.17), maa://32415 (95.18), maa://34677 (100.0), maa://32892 (100.0)</t>
+  </si>
+  <si>
+    <t>maa://34865 (92.75), maa://34717 (93.48)</t>
+  </si>
+  <si>
+    <t>maa://36868 (100.0), maa://35996 (95.65)</t>
+  </si>
+  <si>
+    <t>maa://36646 (96.72), maa://36845 (91.67)</t>
+  </si>
+  <si>
+    <t>maa://36645 (97.58), maa://36841 (96.88), maa://37484 (100.0)</t>
   </si>
 </sst>
 </file>
@@ -2377,7 +2383,7 @@
   <dimension ref="A1:AF298"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A247" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+      <selection activeCell="M291" sqref="M291"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2495,7 +2501,7 @@
         <v>401</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>661</v>
+        <v>588</v>
       </c>
       <c r="G3" s="5"/>
       <c r="H3" s="5"/>
@@ -2674,7 +2680,7 @@
         <v>1</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>407</v>
+        <v>589</v>
       </c>
       <c r="F9" s="2"/>
       <c r="H9" s="1"/>
@@ -2703,7 +2709,7 @@
         <v>1</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="F10" s="2"/>
       <c r="H10" s="1"/>
@@ -2732,7 +2738,7 @@
         <v>1</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="F11" s="2"/>
       <c r="H11" s="1"/>
@@ -2752,7 +2758,7 @@
     </row>
     <row r="12" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>613</v>
+        <v>570</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>343</v>
@@ -2819,7 +2825,7 @@
         <v>2</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>614</v>
+        <v>571</v>
       </c>
       <c r="F14" s="2"/>
       <c r="H14" s="1"/>
@@ -2848,7 +2854,7 @@
         <v>1</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="F15" s="2"/>
       <c r="H15" s="1"/>
@@ -2877,7 +2883,7 @@
         <v>1</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="F16" s="2"/>
       <c r="H16" s="1"/>
@@ -2906,7 +2912,7 @@
         <v>1</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="F17" s="2"/>
       <c r="H17" s="1"/>
@@ -2935,7 +2941,7 @@
         <v>2</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="F18" s="2"/>
       <c r="H18" s="1"/>
@@ -2964,7 +2970,7 @@
         <v>1</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="F19" s="2"/>
       <c r="H19" s="1"/>
@@ -2993,7 +2999,7 @@
         <v>2</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="F20" s="2"/>
       <c r="H20" s="1"/>
@@ -3022,7 +3028,7 @@
         <v>1</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="F21" s="2"/>
       <c r="H21" s="1"/>
@@ -3051,7 +3057,7 @@
         <v>1</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="F22" s="2"/>
       <c r="H22" s="1"/>
@@ -3080,7 +3086,7 @@
         <v>1</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="F23" s="2"/>
       <c r="H23" s="1"/>
@@ -3138,7 +3144,7 @@
         <v>4</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F25" s="2"/>
       <c r="H25" s="1"/>
@@ -3167,7 +3173,7 @@
         <v>1</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="F26" s="2"/>
       <c r="H26" s="1"/>
@@ -3196,7 +3202,7 @@
         <v>3</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>615</v>
+        <v>590</v>
       </c>
       <c r="F27" s="2"/>
       <c r="H27" s="1"/>
@@ -3225,7 +3231,7 @@
         <v>1</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="F28" s="2"/>
       <c r="H28" s="1"/>
@@ -3274,16 +3280,16 @@
     </row>
     <row r="30" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
-        <v>616</v>
+        <v>572</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>365</v>
       </c>
       <c r="C30" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>617</v>
+        <v>591</v>
       </c>
     </row>
     <row r="31" spans="1:32" x14ac:dyDescent="0.2">
@@ -3297,7 +3303,7 @@
         <v>2</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>422</v>
+        <v>592</v>
       </c>
     </row>
     <row r="32" spans="1:32" x14ac:dyDescent="0.2">
@@ -3311,7 +3317,7 @@
         <v>1</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
@@ -3325,7 +3331,7 @@
         <v>1</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
@@ -3339,7 +3345,7 @@
         <v>1</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
@@ -3353,7 +3359,7 @@
         <v>2</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>618</v>
+        <v>593</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
@@ -3367,7 +3373,7 @@
         <v>1</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
@@ -3381,7 +3387,7 @@
         <v>2</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -3395,7 +3401,7 @@
         <v>1</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -3409,7 +3415,7 @@
         <v>1</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>619</v>
+        <v>594</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -3423,7 +3429,7 @@
         <v>4</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -3437,7 +3443,7 @@
         <v>1</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -3451,7 +3457,7 @@
         <v>1</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -3465,7 +3471,7 @@
         <v>1</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
@@ -3493,7 +3499,7 @@
         <v>1</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
@@ -3507,7 +3513,7 @@
         <v>1</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
@@ -3521,7 +3527,7 @@
         <v>2</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
@@ -3535,7 +3541,7 @@
         <v>1</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
@@ -3549,7 +3555,7 @@
         <v>1</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
@@ -3563,7 +3569,7 @@
         <v>2</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
@@ -3577,7 +3583,7 @@
         <v>1</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
@@ -3591,7 +3597,7 @@
         <v>1</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>440</v>
+        <v>595</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
@@ -3605,7 +3611,7 @@
         <v>1</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
@@ -3619,7 +3625,7 @@
         <v>2</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>620</v>
+        <v>596</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
@@ -3633,7 +3639,7 @@
         <v>1</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
@@ -3647,7 +3653,7 @@
         <v>5</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
@@ -3661,7 +3667,7 @@
         <v>1</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
@@ -3675,7 +3681,7 @@
         <v>1</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
@@ -3689,7 +3695,7 @@
         <v>2</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
@@ -3703,7 +3709,7 @@
         <v>4</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
@@ -3717,7 +3723,7 @@
         <v>2</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
@@ -3731,7 +3737,7 @@
         <v>2</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>621</v>
+        <v>597</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
@@ -3745,7 +3751,7 @@
         <v>8</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>622</v>
+        <v>598</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
@@ -3759,7 +3765,7 @@
         <v>2</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>449</v>
+        <v>599</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
@@ -3773,21 +3779,21 @@
         <v>1</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="s">
-        <v>623</v>
+        <v>573</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>310</v>
       </c>
       <c r="C66" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>624</v>
+        <v>600</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
@@ -3829,7 +3835,7 @@
         <v>1</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
@@ -3843,7 +3849,7 @@
         <v>1</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
@@ -3857,7 +3863,7 @@
         <v>1</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>453</v>
+        <v>601</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
@@ -3871,7 +3877,7 @@
         <v>1</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
@@ -3885,7 +3891,7 @@
         <v>1</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
@@ -3899,7 +3905,7 @@
         <v>1</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.2">
@@ -3913,7 +3919,7 @@
         <v>3</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.2">
@@ -3927,7 +3933,7 @@
         <v>1</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
@@ -3941,7 +3947,7 @@
         <v>1</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
@@ -3955,7 +3961,7 @@
         <v>1</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
@@ -3969,7 +3975,7 @@
         <v>1</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
@@ -3983,7 +3989,7 @@
         <v>1</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
@@ -3997,7 +4003,7 @@
         <v>2</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>463</v>
+        <v>602</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.2">
@@ -4011,7 +4017,7 @@
         <v>2</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>625</v>
+        <v>603</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.2">
@@ -4025,7 +4031,7 @@
         <v>2</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>464</v>
+        <v>604</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
@@ -4039,7 +4045,7 @@
         <v>1</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>465</v>
+        <v>458</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.2">
@@ -4053,7 +4059,7 @@
         <v>1</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>466</v>
+        <v>459</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.2">
@@ -4067,7 +4073,7 @@
         <v>1</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>467</v>
+        <v>460</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.2">
@@ -4081,7 +4087,7 @@
         <v>1</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>468</v>
+        <v>605</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.2">
@@ -4095,7 +4101,7 @@
         <v>1</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>469</v>
+        <v>461</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.2">
@@ -4109,7 +4115,7 @@
         <v>1</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>470</v>
+        <v>462</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.2">
@@ -4123,7 +4129,7 @@
         <v>1</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>471</v>
+        <v>463</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.2">
@@ -4137,7 +4143,7 @@
         <v>1</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>472</v>
+        <v>464</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.2">
@@ -4151,7 +4157,7 @@
         <v>2</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>473</v>
+        <v>606</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.2">
@@ -4165,7 +4171,7 @@
         <v>1</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>474</v>
+        <v>465</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.2">
@@ -4179,7 +4185,7 @@
         <v>3</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>475</v>
+        <v>607</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.2">
@@ -4193,7 +4199,7 @@
         <v>1</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>476</v>
+        <v>466</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.2">
@@ -4221,7 +4227,7 @@
         <v>2</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>477</v>
+        <v>467</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.2">
@@ -4235,7 +4241,7 @@
         <v>1</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>478</v>
+        <v>468</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.2">
@@ -4249,7 +4255,7 @@
         <v>6</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>626</v>
+        <v>608</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.2">
@@ -4263,7 +4269,7 @@
         <v>1</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>479</v>
+        <v>469</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.2">
@@ -4277,7 +4283,7 @@
         <v>1</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>480</v>
+        <v>470</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.2">
@@ -4291,7 +4297,7 @@
         <v>1</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>481</v>
+        <v>609</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.2">
@@ -4305,7 +4311,7 @@
         <v>2</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>482</v>
+        <v>610</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.2">
@@ -4319,7 +4325,7 @@
         <v>1</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>483</v>
+        <v>471</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.2">
@@ -4333,7 +4339,7 @@
         <v>1</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>484</v>
+        <v>472</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.2">
@@ -4347,7 +4353,7 @@
         <v>3</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>485</v>
+        <v>611</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.2">
@@ -4361,7 +4367,7 @@
         <v>2</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>486</v>
+        <v>612</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.2">
@@ -4375,7 +4381,7 @@
         <v>2</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>487</v>
+        <v>613</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.2">
@@ -4389,7 +4395,7 @@
         <v>1</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>488</v>
+        <v>473</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.2">
@@ -4403,7 +4409,7 @@
         <v>2</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>489</v>
+        <v>614</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.2">
@@ -4417,7 +4423,7 @@
         <v>1</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>490</v>
+        <v>474</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.2">
@@ -4431,7 +4437,7 @@
         <v>1</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>491</v>
+        <v>475</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.2">
@@ -4445,7 +4451,7 @@
         <v>1</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>492</v>
+        <v>615</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.2">
@@ -4459,7 +4465,7 @@
         <v>1</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>493</v>
+        <v>476</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.2">
@@ -4473,7 +4479,7 @@
         <v>1</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>494</v>
+        <v>477</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.2">
@@ -4487,7 +4493,7 @@
         <v>1</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>495</v>
+        <v>478</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.2">
@@ -4501,7 +4507,7 @@
         <v>3</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>496</v>
+        <v>479</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.2">
@@ -4512,10 +4518,10 @@
         <v>281</v>
       </c>
       <c r="C118" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>497</v>
+        <v>616</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.2">
@@ -4529,7 +4535,7 @@
         <v>2</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>498</v>
+        <v>480</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.2">
@@ -4543,7 +4549,7 @@
         <v>1</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>499</v>
+        <v>481</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.2">
@@ -4557,7 +4563,7 @@
         <v>1</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>500</v>
+        <v>482</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.2">
@@ -4568,10 +4574,10 @@
         <v>284</v>
       </c>
       <c r="C122" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>501</v>
+        <v>617</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.2">
@@ -4585,7 +4591,7 @@
         <v>3</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>627</v>
+        <v>618</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.2">
@@ -4613,7 +4619,7 @@
         <v>1</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>502</v>
+        <v>483</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.2">
@@ -4627,7 +4633,7 @@
         <v>1</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>503</v>
+        <v>484</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.2">
@@ -4641,7 +4647,7 @@
         <v>1</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>504</v>
+        <v>485</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.2">
@@ -4655,7 +4661,7 @@
         <v>2</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>505</v>
+        <v>619</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.2">
@@ -4669,7 +4675,7 @@
         <v>1</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>506</v>
+        <v>486</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.2">
@@ -4683,12 +4689,12 @@
         <v>1</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>507</v>
+        <v>487</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A131" s="2" t="s">
-        <v>628</v>
+        <v>574</v>
       </c>
       <c r="B131" s="2" t="s">
         <v>360</v>
@@ -4711,7 +4717,7 @@
         <v>4</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>629</v>
+        <v>620</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.2">
@@ -4725,7 +4731,7 @@
         <v>3</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>508</v>
+        <v>621</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.2">
@@ -4739,7 +4745,7 @@
         <v>1</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>509</v>
+        <v>488</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.2">
@@ -4767,7 +4773,7 @@
         <v>1</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>510</v>
+        <v>489</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.2">
@@ -4781,7 +4787,7 @@
         <v>2</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>630</v>
+        <v>575</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.2">
@@ -4795,21 +4801,21 @@
         <v>1</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>511</v>
+        <v>490</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A139" s="2" t="s">
-        <v>631</v>
+        <v>576</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>632</v>
+        <v>577</v>
       </c>
       <c r="C139" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>633</v>
+        <v>622</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.2">
@@ -4823,7 +4829,7 @@
         <v>1</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>512</v>
+        <v>491</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.2">
@@ -4837,7 +4843,7 @@
         <v>1</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>513</v>
+        <v>492</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.2">
@@ -4865,7 +4871,7 @@
         <v>2</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>514</v>
+        <v>493</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.2">
@@ -4879,12 +4885,12 @@
         <v>1</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>634</v>
+        <v>623</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A145" s="2" t="s">
-        <v>635</v>
+        <v>578</v>
       </c>
       <c r="B145" s="2" t="s">
         <v>345</v>
@@ -4921,7 +4927,7 @@
         <v>1</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>515</v>
+        <v>494</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.2">
@@ -4935,7 +4941,7 @@
         <v>1</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>516</v>
+        <v>495</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.2">
@@ -4949,7 +4955,7 @@
         <v>1</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>636</v>
+        <v>579</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.2">
@@ -4963,7 +4969,7 @@
         <v>2</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>517</v>
+        <v>496</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.2">
@@ -4977,7 +4983,7 @@
         <v>1</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>518</v>
+        <v>497</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.2">
@@ -5005,7 +5011,7 @@
         <v>2</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>519</v>
+        <v>498</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.2">
@@ -5019,7 +5025,7 @@
         <v>4</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>637</v>
+        <v>624</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.2">
@@ -5033,7 +5039,7 @@
         <v>1</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>520</v>
+        <v>499</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.2">
@@ -5061,7 +5067,7 @@
         <v>1</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>521</v>
+        <v>500</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.2">
@@ -5075,7 +5081,7 @@
         <v>1</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>638</v>
+        <v>625</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.2">
@@ -5103,7 +5109,7 @@
         <v>1</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>522</v>
+        <v>501</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.2">
@@ -5117,7 +5123,7 @@
         <v>1</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>523</v>
+        <v>502</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.2">
@@ -5131,7 +5137,7 @@
         <v>2</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>524</v>
+        <v>503</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.2">
@@ -5145,7 +5151,7 @@
         <v>1</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>525</v>
+        <v>504</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.2">
@@ -5159,7 +5165,7 @@
         <v>1</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>526</v>
+        <v>505</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.2">
@@ -5173,7 +5179,7 @@
         <v>2</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>527</v>
+        <v>626</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.2">
@@ -5187,7 +5193,7 @@
         <v>1</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>528</v>
+        <v>506</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.2">
@@ -5201,7 +5207,7 @@
         <v>1</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>529</v>
+        <v>507</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.2">
@@ -5215,7 +5221,7 @@
         <v>1</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>530</v>
+        <v>508</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.2">
@@ -5229,7 +5235,7 @@
         <v>1</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>531</v>
+        <v>627</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.2">
@@ -5243,7 +5249,7 @@
         <v>1</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>532</v>
+        <v>509</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.2">
@@ -5257,7 +5263,7 @@
         <v>1</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>533</v>
+        <v>510</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.2">
@@ -5285,7 +5291,7 @@
         <v>2</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>639</v>
+        <v>628</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.2">
@@ -5299,7 +5305,7 @@
         <v>2</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>534</v>
+        <v>511</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.2">
@@ -5313,7 +5319,7 @@
         <v>1</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>535</v>
+        <v>512</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.2">
@@ -5327,7 +5333,7 @@
         <v>1</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>536</v>
+        <v>513</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.2">
@@ -5341,7 +5347,7 @@
         <v>1</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>537</v>
+        <v>514</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.2">
@@ -5355,7 +5361,7 @@
         <v>2</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>538</v>
+        <v>629</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.2">
@@ -5369,7 +5375,7 @@
         <v>1</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>539</v>
+        <v>515</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.2">
@@ -5383,7 +5389,7 @@
         <v>3</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>540</v>
+        <v>516</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.2">
@@ -5397,7 +5403,7 @@
         <v>5</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>541</v>
+        <v>630</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.2">
@@ -5411,7 +5417,7 @@
         <v>5</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>541</v>
+        <v>630</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.2">
@@ -5425,7 +5431,7 @@
         <v>1</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>542</v>
+        <v>517</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.2">
@@ -5439,7 +5445,7 @@
         <v>1</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>543</v>
+        <v>518</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.2">
@@ -5453,7 +5459,7 @@
         <v>1</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>544</v>
+        <v>519</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.2">
@@ -5467,7 +5473,7 @@
         <v>1</v>
       </c>
       <c r="D186" s="2" t="s">
-        <v>545</v>
+        <v>520</v>
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.2">
@@ -5481,7 +5487,7 @@
         <v>2</v>
       </c>
       <c r="D187" s="2" t="s">
-        <v>546</v>
+        <v>521</v>
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.2">
@@ -5495,7 +5501,7 @@
         <v>3</v>
       </c>
       <c r="D188" s="2" t="s">
-        <v>547</v>
+        <v>522</v>
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.2">
@@ -5509,7 +5515,7 @@
         <v>1</v>
       </c>
       <c r="D189" s="2" t="s">
-        <v>548</v>
+        <v>523</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.2">
@@ -5523,7 +5529,7 @@
         <v>4</v>
       </c>
       <c r="D190" s="2" t="s">
-        <v>549</v>
+        <v>631</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.2">
@@ -5537,7 +5543,7 @@
         <v>2</v>
       </c>
       <c r="D191" s="2" t="s">
-        <v>640</v>
+        <v>632</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.2">
@@ -5551,7 +5557,7 @@
         <v>1</v>
       </c>
       <c r="D192" s="2" t="s">
-        <v>550</v>
+        <v>524</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.2">
@@ -5576,7 +5582,7 @@
         <v>2</v>
       </c>
       <c r="D194" s="2" t="s">
-        <v>551</v>
+        <v>525</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.2">
@@ -5604,7 +5610,7 @@
         <v>1</v>
       </c>
       <c r="D196" s="2" t="s">
-        <v>552</v>
+        <v>526</v>
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.2">
@@ -5618,7 +5624,7 @@
         <v>2</v>
       </c>
       <c r="D197" s="2" t="s">
-        <v>553</v>
+        <v>527</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.2">
@@ -5632,7 +5638,7 @@
         <v>1</v>
       </c>
       <c r="D198" s="2" t="s">
-        <v>554</v>
+        <v>528</v>
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.2">
@@ -5646,7 +5652,7 @@
         <v>1</v>
       </c>
       <c r="D199" s="2" t="s">
-        <v>555</v>
+        <v>529</v>
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.2">
@@ -5674,7 +5680,7 @@
         <v>1</v>
       </c>
       <c r="D201" s="2" t="s">
-        <v>556</v>
+        <v>530</v>
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.2">
@@ -5688,7 +5694,7 @@
         <v>1</v>
       </c>
       <c r="D202" s="2" t="s">
-        <v>557</v>
+        <v>531</v>
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.2">
@@ -5702,7 +5708,7 @@
         <v>2</v>
       </c>
       <c r="D203" s="2" t="s">
-        <v>558</v>
+        <v>633</v>
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.2">
@@ -5730,7 +5736,7 @@
         <v>1</v>
       </c>
       <c r="D205" s="2" t="s">
-        <v>559</v>
+        <v>532</v>
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.2">
@@ -5744,7 +5750,7 @@
         <v>1</v>
       </c>
       <c r="D206" s="2" t="s">
-        <v>560</v>
+        <v>533</v>
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.2">
@@ -5758,7 +5764,7 @@
         <v>1</v>
       </c>
       <c r="D207" s="2" t="s">
-        <v>561</v>
+        <v>634</v>
       </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.2">
@@ -5786,7 +5792,7 @@
         <v>1</v>
       </c>
       <c r="D209" s="2" t="s">
-        <v>562</v>
+        <v>534</v>
       </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.2">
@@ -5800,7 +5806,7 @@
         <v>1</v>
       </c>
       <c r="D210" s="2" t="s">
-        <v>563</v>
+        <v>535</v>
       </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.2">
@@ -5814,7 +5820,7 @@
         <v>1</v>
       </c>
       <c r="D211" s="2" t="s">
-        <v>564</v>
+        <v>635</v>
       </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.2">
@@ -5828,7 +5834,7 @@
         <v>2</v>
       </c>
       <c r="D212" s="2" t="s">
-        <v>565</v>
+        <v>636</v>
       </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.2">
@@ -5842,7 +5848,7 @@
         <v>4</v>
       </c>
       <c r="D213" s="2" t="s">
-        <v>566</v>
+        <v>637</v>
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.2">
@@ -5856,7 +5862,7 @@
         <v>1</v>
       </c>
       <c r="D214" s="2" t="s">
-        <v>567</v>
+        <v>536</v>
       </c>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.2">
@@ -5870,7 +5876,7 @@
         <v>6</v>
       </c>
       <c r="D215" s="2" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.2">
@@ -5884,7 +5890,7 @@
         <v>1</v>
       </c>
       <c r="D216" s="2" t="s">
-        <v>568</v>
+        <v>537</v>
       </c>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.2">
@@ -5898,7 +5904,7 @@
         <v>1</v>
       </c>
       <c r="D217" s="2" t="s">
-        <v>569</v>
+        <v>538</v>
       </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.2">
@@ -5912,7 +5918,7 @@
         <v>1</v>
       </c>
       <c r="D218" s="2" t="s">
-        <v>570</v>
+        <v>539</v>
       </c>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.2">
@@ -5926,7 +5932,7 @@
         <v>2</v>
       </c>
       <c r="D219" s="2" t="s">
-        <v>571</v>
+        <v>639</v>
       </c>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.2">
@@ -5940,7 +5946,7 @@
         <v>1</v>
       </c>
       <c r="D220" s="2" t="s">
-        <v>572</v>
+        <v>640</v>
       </c>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.2">
@@ -5954,7 +5960,7 @@
         <v>3</v>
       </c>
       <c r="D221" s="2" t="s">
-        <v>573</v>
+        <v>641</v>
       </c>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.2">
@@ -5982,7 +5988,7 @@
         <v>1</v>
       </c>
       <c r="D223" s="2" t="s">
-        <v>574</v>
+        <v>642</v>
       </c>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.2">
@@ -5996,7 +6002,7 @@
         <v>3</v>
       </c>
       <c r="D224" s="2" t="s">
-        <v>575</v>
+        <v>540</v>
       </c>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.2">
@@ -6010,7 +6016,7 @@
         <v>1</v>
       </c>
       <c r="D225" s="2" t="s">
-        <v>576</v>
+        <v>541</v>
       </c>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.2">
@@ -6024,7 +6030,7 @@
         <v>2</v>
       </c>
       <c r="D226" s="2" t="s">
-        <v>577</v>
+        <v>643</v>
       </c>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.2">
@@ -6038,7 +6044,7 @@
         <v>2</v>
       </c>
       <c r="D227" s="2" t="s">
-        <v>578</v>
+        <v>542</v>
       </c>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.2">
@@ -6052,7 +6058,7 @@
         <v>1</v>
       </c>
       <c r="D228" s="2" t="s">
-        <v>579</v>
+        <v>543</v>
       </c>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.2">
@@ -6066,7 +6072,7 @@
         <v>1</v>
       </c>
       <c r="D229" s="2" t="s">
-        <v>580</v>
+        <v>544</v>
       </c>
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.2">
@@ -6080,7 +6086,7 @@
         <v>2</v>
       </c>
       <c r="D230" s="2" t="s">
-        <v>581</v>
+        <v>644</v>
       </c>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.2">
@@ -6094,7 +6100,7 @@
         <v>1</v>
       </c>
       <c r="D231" s="2" t="s">
-        <v>582</v>
+        <v>545</v>
       </c>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.2">
@@ -6108,7 +6114,7 @@
         <v>1</v>
       </c>
       <c r="D232" s="2" t="s">
-        <v>583</v>
+        <v>546</v>
       </c>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.2">
@@ -6122,7 +6128,7 @@
         <v>1</v>
       </c>
       <c r="D233" s="2" t="s">
-        <v>584</v>
+        <v>547</v>
       </c>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.2">
@@ -6150,7 +6156,7 @@
         <v>1</v>
       </c>
       <c r="D235" s="2" t="s">
-        <v>585</v>
+        <v>645</v>
       </c>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.2">
@@ -6164,7 +6170,7 @@
         <v>1</v>
       </c>
       <c r="D236" s="2" t="s">
-        <v>586</v>
+        <v>548</v>
       </c>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.2">
@@ -6178,7 +6184,7 @@
         <v>4</v>
       </c>
       <c r="D237" s="2" t="s">
-        <v>587</v>
+        <v>549</v>
       </c>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.2">
@@ -6192,7 +6198,7 @@
         <v>1</v>
       </c>
       <c r="D238" s="2" t="s">
-        <v>642</v>
+        <v>646</v>
       </c>
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.2">
@@ -6206,15 +6212,15 @@
         <v>1</v>
       </c>
       <c r="D239" s="2" t="s">
-        <v>588</v>
+        <v>550</v>
       </c>
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A240" s="2" t="s">
-        <v>643</v>
+        <v>580</v>
       </c>
       <c r="B240" s="2" t="s">
-        <v>644</v>
+        <v>581</v>
       </c>
       <c r="C240" s="1">
         <v>0</v>
@@ -6234,7 +6240,7 @@
         <v>1</v>
       </c>
       <c r="D241" s="2" t="s">
-        <v>589</v>
+        <v>551</v>
       </c>
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.2">
@@ -6248,7 +6254,7 @@
         <v>1</v>
       </c>
       <c r="D242" s="2" t="s">
-        <v>590</v>
+        <v>552</v>
       </c>
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.2">
@@ -6276,7 +6282,7 @@
         <v>2</v>
       </c>
       <c r="D244" s="2" t="s">
-        <v>591</v>
+        <v>647</v>
       </c>
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.2">
@@ -6290,7 +6296,7 @@
         <v>1</v>
       </c>
       <c r="D245" s="2" t="s">
-        <v>592</v>
+        <v>553</v>
       </c>
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.2">
@@ -6304,7 +6310,7 @@
         <v>1</v>
       </c>
       <c r="D246" s="2" t="s">
-        <v>593</v>
+        <v>554</v>
       </c>
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.2">
@@ -6318,7 +6324,7 @@
         <v>1</v>
       </c>
       <c r="D247" s="2" t="s">
-        <v>645</v>
+        <v>582</v>
       </c>
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.2">
@@ -6332,7 +6338,7 @@
         <v>1</v>
       </c>
       <c r="D248" s="2" t="s">
-        <v>594</v>
+        <v>555</v>
       </c>
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.2">
@@ -6346,7 +6352,7 @@
         <v>1</v>
       </c>
       <c r="D249" s="2" t="s">
-        <v>646</v>
+        <v>648</v>
       </c>
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.2">
@@ -6360,7 +6366,7 @@
         <v>1</v>
       </c>
       <c r="D250" s="2" t="s">
-        <v>595</v>
+        <v>556</v>
       </c>
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.2">
@@ -6371,10 +6377,10 @@
         <v>388</v>
       </c>
       <c r="C251" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D251" s="2" t="s">
-        <v>647</v>
+        <v>649</v>
       </c>
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.2">
@@ -6388,7 +6394,7 @@
         <v>1</v>
       </c>
       <c r="D252" s="2" t="s">
-        <v>596</v>
+        <v>557</v>
       </c>
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.2">
@@ -6402,7 +6408,7 @@
         <v>1</v>
       </c>
       <c r="D253" s="2" t="s">
-        <v>597</v>
+        <v>558</v>
       </c>
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.2">
@@ -6416,7 +6422,7 @@
         <v>4</v>
       </c>
       <c r="D254" s="2" t="s">
-        <v>648</v>
+        <v>650</v>
       </c>
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.2">
@@ -6430,21 +6436,21 @@
         <v>2</v>
       </c>
       <c r="D255" s="2" t="s">
-        <v>649</v>
+        <v>651</v>
       </c>
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A256" s="2" t="s">
-        <v>650</v>
+        <v>583</v>
       </c>
       <c r="B256" s="2" t="s">
         <v>324</v>
       </c>
       <c r="C256" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D256" s="2" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.2">
@@ -6472,7 +6478,7 @@
         <v>2</v>
       </c>
       <c r="D258" s="2" t="s">
-        <v>598</v>
+        <v>653</v>
       </c>
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.2">
@@ -6542,7 +6548,7 @@
         <v>1</v>
       </c>
       <c r="D263" s="2" t="s">
-        <v>599</v>
+        <v>559</v>
       </c>
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.2">
@@ -6556,7 +6562,7 @@
         <v>1</v>
       </c>
       <c r="D264" s="2" t="s">
-        <v>600</v>
+        <v>560</v>
       </c>
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.2">
@@ -6581,7 +6587,7 @@
         <v>1</v>
       </c>
       <c r="D266" s="2" t="s">
-        <v>601</v>
+        <v>561</v>
       </c>
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.2">
@@ -6623,7 +6629,7 @@
         <v>2</v>
       </c>
       <c r="D269" s="2" t="s">
-        <v>602</v>
+        <v>654</v>
       </c>
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.2">
@@ -6651,7 +6657,7 @@
         <v>1</v>
       </c>
       <c r="D271" s="2" t="s">
-        <v>652</v>
+        <v>655</v>
       </c>
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.2">
@@ -6676,7 +6682,7 @@
         <v>2</v>
       </c>
       <c r="D273" s="2" t="s">
-        <v>603</v>
+        <v>562</v>
       </c>
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.2">
@@ -6690,7 +6696,7 @@
         <v>2</v>
       </c>
       <c r="D274" s="2" t="s">
-        <v>604</v>
+        <v>563</v>
       </c>
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.2">
@@ -6718,7 +6724,7 @@
         <v>2</v>
       </c>
       <c r="D276" s="2" t="s">
-        <v>605</v>
+        <v>564</v>
       </c>
     </row>
     <row r="277" spans="1:4" x14ac:dyDescent="0.2">
@@ -6760,7 +6766,7 @@
         <v>1</v>
       </c>
       <c r="D279" s="2" t="s">
-        <v>606</v>
+        <v>565</v>
       </c>
     </row>
     <row r="280" spans="1:4" x14ac:dyDescent="0.2">
@@ -6785,12 +6791,15 @@
         <v>395</v>
       </c>
       <c r="C281" s="1">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="D281" s="2" t="s">
+        <v>656</v>
       </c>
     </row>
     <row r="282" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A282" s="2" t="s">
-        <v>653</v>
+        <v>584</v>
       </c>
       <c r="B282" s="2" t="s">
         <v>386</v>
@@ -6810,10 +6819,10 @@
         <v>306</v>
       </c>
       <c r="C283" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D283" s="2" t="s">
-        <v>607</v>
+        <v>657</v>
       </c>
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.2">
@@ -6827,7 +6836,7 @@
         <v>1</v>
       </c>
       <c r="D284" s="2" t="s">
-        <v>608</v>
+        <v>566</v>
       </c>
     </row>
     <row r="285" spans="1:4" x14ac:dyDescent="0.2">
@@ -6841,7 +6850,7 @@
         <v>1</v>
       </c>
       <c r="D285" s="2" t="s">
-        <v>609</v>
+        <v>567</v>
       </c>
     </row>
     <row r="286" spans="1:4" x14ac:dyDescent="0.2">
@@ -6855,7 +6864,7 @@
         <v>1</v>
       </c>
       <c r="D286" s="2" t="s">
-        <v>610</v>
+        <v>658</v>
       </c>
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.2">
@@ -6869,7 +6878,7 @@
         <v>4</v>
       </c>
       <c r="D287" s="2" t="s">
-        <v>654</v>
+        <v>659</v>
       </c>
     </row>
     <row r="288" spans="1:4" x14ac:dyDescent="0.2">
@@ -6883,7 +6892,7 @@
         <v>1</v>
       </c>
       <c r="D288" s="2" t="s">
-        <v>611</v>
+        <v>568</v>
       </c>
     </row>
     <row r="289" spans="1:4" x14ac:dyDescent="0.2">
@@ -6908,7 +6917,7 @@
         <v>1</v>
       </c>
       <c r="D290" s="2" t="s">
-        <v>612</v>
+        <v>569</v>
       </c>
     </row>
     <row r="291" spans="1:4" x14ac:dyDescent="0.2">
@@ -6936,7 +6945,7 @@
         <v>2</v>
       </c>
       <c r="D292" s="2" t="s">
-        <v>655</v>
+        <v>660</v>
       </c>
     </row>
     <row r="293" spans="1:4" x14ac:dyDescent="0.2">
@@ -6975,15 +6984,15 @@
         <v>388</v>
       </c>
       <c r="C295" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D295" s="2" t="s">
-        <v>656</v>
+        <v>661</v>
       </c>
     </row>
     <row r="296" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A296" s="2" t="s">
-        <v>657</v>
+        <v>585</v>
       </c>
       <c r="B296" s="2" t="s">
         <v>343</v>
@@ -6994,27 +7003,30 @@
     </row>
     <row r="297" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A297" s="2" t="s">
-        <v>658</v>
+        <v>586</v>
       </c>
       <c r="B297" s="2" t="s">
         <v>388</v>
       </c>
       <c r="C297" s="1">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="D297" s="2" t="s">
+        <v>662</v>
       </c>
     </row>
     <row r="298" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A298" s="2" t="s">
-        <v>659</v>
+        <v>587</v>
       </c>
       <c r="B298" s="2" t="s">
         <v>281</v>
       </c>
       <c r="C298" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D298" s="2" t="s">
-        <v>660</v>
+        <v>663</v>
       </c>
     </row>
   </sheetData>
